--- a/natmiOut/YoungD4/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H2">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>655.912750499455</v>
+        <v>856.1216154934631</v>
       </c>
       <c r="R2">
-        <v>655.912750499455</v>
+        <v>7705.094539441168</v>
       </c>
       <c r="S2">
-        <v>0.001651805100307781</v>
+        <v>0.002070524109264967</v>
       </c>
       <c r="T2">
-        <v>0.001651805100307781</v>
+        <v>0.002070524109264968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H3">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>22968.36283233664</v>
+        <v>23169.07749019786</v>
       </c>
       <c r="R3">
-        <v>22968.36283233664</v>
+        <v>208521.6974117807</v>
       </c>
       <c r="S3">
-        <v>0.05784192919452151</v>
+        <v>0.05603425105115712</v>
       </c>
       <c r="T3">
-        <v>0.05784192919452151</v>
+        <v>0.05603425105115714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H4">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I4">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J4">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>31412.13502732585</v>
+        <v>31622.89266039229</v>
       </c>
       <c r="R4">
-        <v>31412.13502732585</v>
+        <v>284606.0339435306</v>
       </c>
       <c r="S4">
-        <v>0.0791061384462851</v>
+        <v>0.0764797436171501</v>
       </c>
       <c r="T4">
-        <v>0.0791061384462851</v>
+        <v>0.07647974361715013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H5">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I5">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J5">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>22950.98524516439</v>
+        <v>23727.50181897025</v>
       </c>
       <c r="R5">
-        <v>22950.98524516439</v>
+        <v>213547.5163707322</v>
       </c>
       <c r="S5">
-        <v>0.05779816668632161</v>
+        <v>0.05738479636504561</v>
       </c>
       <c r="T5">
-        <v>0.05779816668632161</v>
+        <v>0.05738479636504562</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H6">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I6">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J6">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>1953.917653445782</v>
+        <v>2216.285485860431</v>
       </c>
       <c r="R6">
-        <v>1953.917653445782</v>
+        <v>19946.56937274388</v>
       </c>
       <c r="S6">
-        <v>0.004920610466995086</v>
+        <v>0.005360070868953644</v>
       </c>
       <c r="T6">
-        <v>0.004920610466995086</v>
+        <v>0.005360070868953647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J7">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>785.1216083855304</v>
+        <v>1027.860192812487</v>
       </c>
       <c r="R7">
-        <v>785.1216083855304</v>
+        <v>9250.741735312386</v>
       </c>
       <c r="S7">
-        <v>0.001977195711023375</v>
+        <v>0.002485872651335063</v>
       </c>
       <c r="T7">
-        <v>0.001977195711023375</v>
+        <v>0.002485872651335064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>27492.92181799348</v>
+        <v>27816.81016503205</v>
       </c>
       <c r="R8">
-        <v>27492.92181799348</v>
+        <v>250351.2914852885</v>
       </c>
       <c r="S8">
-        <v>0.06923626419328531</v>
+        <v>0.06727475985564044</v>
       </c>
       <c r="T8">
-        <v>0.06923626419328531</v>
+        <v>0.06727475985564046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J9">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>37600.04048815639</v>
+        <v>37966.46639795954</v>
       </c>
       <c r="R9">
-        <v>37600.04048815639</v>
+        <v>341698.1975816359</v>
       </c>
       <c r="S9">
-        <v>0.09468932964456438</v>
+        <v>0.09182163211153464</v>
       </c>
       <c r="T9">
-        <v>0.09468932964456438</v>
+        <v>0.09182163211153467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H10">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I10">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J10">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>27472.12100389108</v>
+        <v>28487.25479329007</v>
       </c>
       <c r="R10">
-        <v>27472.12100389108</v>
+        <v>256385.2931396106</v>
       </c>
       <c r="S10">
-        <v>0.06918388086821849</v>
+        <v>0.0688962254764276</v>
       </c>
       <c r="T10">
-        <v>0.06918388086821849</v>
+        <v>0.06889622547642762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H11">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I11">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J11">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>2338.821694742323</v>
+        <v>2660.873859038096</v>
       </c>
       <c r="R11">
-        <v>2338.821694742323</v>
+        <v>23947.86473134286</v>
       </c>
       <c r="S11">
-        <v>0.005889926062794334</v>
+        <v>0.006435304724406127</v>
       </c>
       <c r="T11">
-        <v>0.005889926062794334</v>
+        <v>0.006435304724406129</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H12">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I12">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J12">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>1045.056501385535</v>
+        <v>1393.28668444572</v>
       </c>
       <c r="R12">
-        <v>1045.056501385535</v>
+        <v>12539.58016001148</v>
       </c>
       <c r="S12">
-        <v>0.002631797686176962</v>
+        <v>0.00336965405271296</v>
       </c>
       <c r="T12">
-        <v>0.002631797686176962</v>
+        <v>0.00336965405271296</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H13">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I13">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J13">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>36595.16739968487</v>
+        <v>37706.28678657656</v>
       </c>
       <c r="R13">
-        <v>36595.16739968487</v>
+        <v>339356.581079189</v>
       </c>
       <c r="S13">
-        <v>0.09215872707366546</v>
+        <v>0.09119238955024601</v>
       </c>
       <c r="T13">
-        <v>0.09215872707366546</v>
+        <v>0.09119238955024603</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H14">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>50048.5101222841</v>
+        <v>51464.36495705708</v>
       </c>
       <c r="R14">
-        <v>50048.5101222841</v>
+        <v>463179.2846135137</v>
       </c>
       <c r="S14">
-        <v>0.1260386906945228</v>
+        <v>0.1244662048979786</v>
       </c>
       <c r="T14">
-        <v>0.1260386906945228</v>
+        <v>0.1244662048979786</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H15">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I15">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J15">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>36567.4799360109</v>
+        <v>38615.08895611487</v>
       </c>
       <c r="R15">
-        <v>36567.4799360109</v>
+        <v>347535.8006050338</v>
       </c>
       <c r="S15">
-        <v>0.09208900088877819</v>
+        <v>0.09339032120916903</v>
       </c>
       <c r="T15">
-        <v>0.09208900088877819</v>
+        <v>0.09339032120916903</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H16">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I16">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J16">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>3113.149340900304</v>
+        <v>3606.871968300666</v>
       </c>
       <c r="R16">
-        <v>3113.149340900304</v>
+        <v>32461.84771470599</v>
       </c>
       <c r="S16">
-        <v>0.007839939009271024</v>
+        <v>0.008723194502096457</v>
       </c>
       <c r="T16">
-        <v>0.007839939009271024</v>
+        <v>0.008723194502096458</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H17">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I17">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J17">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>691.5509846057223</v>
+        <v>956.2312818051046</v>
       </c>
       <c r="R17">
-        <v>691.5509846057223</v>
+        <v>8606.081536245942</v>
       </c>
       <c r="S17">
-        <v>0.001741553953059721</v>
+        <v>0.002312638633553961</v>
       </c>
       <c r="T17">
-        <v>0.001741553953059721</v>
+        <v>0.002312638633553961</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H18">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I18">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J18">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>24216.32133144068</v>
+        <v>25878.32880953916</v>
       </c>
       <c r="R18">
-        <v>24216.32133144068</v>
+        <v>232904.9592858524</v>
       </c>
       <c r="S18">
-        <v>0.06098470117482351</v>
+        <v>0.06258655632325419</v>
       </c>
       <c r="T18">
-        <v>0.06098470117482351</v>
+        <v>0.06258655632325422</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H19">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I19">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J19">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>33118.87578061823</v>
+        <v>35320.68182346115</v>
       </c>
       <c r="R19">
-        <v>33118.87578061823</v>
+        <v>317886.1364111503</v>
       </c>
       <c r="S19">
-        <v>0.08340427578093026</v>
+        <v>0.08542282071572295</v>
       </c>
       <c r="T19">
-        <v>0.08340427578093026</v>
+        <v>0.08542282071572298</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H20">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I20">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J20">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>24197.99955387211</v>
+        <v>26502.05189050049</v>
       </c>
       <c r="R20">
-        <v>24197.99955387211</v>
+        <v>238518.4670145044</v>
       </c>
       <c r="S20">
-        <v>0.06093856088312859</v>
+        <v>0.06409502621031701</v>
       </c>
       <c r="T20">
-        <v>0.06093856088312859</v>
+        <v>0.06409502621031703</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H21">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I21">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J21">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N21">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q21">
-        <v>2060.081430114013</v>
+        <v>2475.444460970453</v>
       </c>
       <c r="R21">
-        <v>2060.081430114013</v>
+        <v>22279.00014873408</v>
       </c>
       <c r="S21">
-        <v>0.005187965946264224</v>
+        <v>0.00598684502859031</v>
       </c>
       <c r="T21">
-        <v>0.005187965946264224</v>
+        <v>0.005986845028590311</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H22">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I22">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J22">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N22">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q22">
-        <v>80.44055754105531</v>
+        <v>105.0411432326304</v>
       </c>
       <c r="R22">
-        <v>80.44055754105531</v>
+        <v>945.3702890936739</v>
       </c>
       <c r="S22">
-        <v>0.0002025759113795839</v>
+        <v>0.0002540412665583218</v>
       </c>
       <c r="T22">
-        <v>0.0002025759113795839</v>
+        <v>0.0002540412665583219</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H23">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I23">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J23">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N23">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P23">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q23">
-        <v>2816.819631317636</v>
+        <v>2842.711062508349</v>
       </c>
       <c r="R23">
-        <v>2816.819631317636</v>
+        <v>25584.39956257514</v>
       </c>
       <c r="S23">
-        <v>0.007093682856621676</v>
+        <v>0.006875076722838228</v>
       </c>
       <c r="T23">
-        <v>0.007093682856621676</v>
+        <v>0.00687507672283823</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H24">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I24">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J24">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N24">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q24">
-        <v>3852.356358721378</v>
+        <v>3879.945018624199</v>
       </c>
       <c r="R24">
-        <v>3852.356358721378</v>
+        <v>34919.50516761779</v>
       </c>
       <c r="S24">
-        <v>0.009701506605403871</v>
+        <v>0.0093836197548329</v>
       </c>
       <c r="T24">
-        <v>0.009701506605403871</v>
+        <v>0.009383619754832902</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H25">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I25">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J25">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N25">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q25">
-        <v>2814.688459450967</v>
+        <v>2911.226479992997</v>
       </c>
       <c r="R25">
-        <v>2814.688459450967</v>
+        <v>26201.03831993697</v>
       </c>
       <c r="S25">
-        <v>0.007088315861459111</v>
+        <v>0.007040780778419804</v>
       </c>
       <c r="T25">
-        <v>0.007088315861459111</v>
+        <v>0.007040780778419805</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H26">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I26">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J26">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N26">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q26">
-        <v>239.6267267449923</v>
+        <v>271.9253397550071</v>
       </c>
       <c r="R26">
-        <v>239.6267267449923</v>
+        <v>2447.328057795064</v>
       </c>
       <c r="S26">
-        <v>0.0006034593001981384</v>
+        <v>0.0006576495227938894</v>
       </c>
       <c r="T26">
-        <v>0.0006034593001981384</v>
+        <v>0.0006576495227938895</v>
       </c>
     </row>
   </sheetData>
